--- a/source/source_spreadsheets/DEQM_Capability_Statement_Reporter_Client.xlsx
+++ b/source/source_spreadsheets/DEQM_Capability_Statement_Reporter_Client.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\source\capstat_spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FA61E9-3A05-413C-A8E3-0563333C983A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00864F95-C5C9-42FD-BF4E-2BCB407948D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="555" windowWidth="28035" windowHeight="17445" activeTab="4" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="765" yWindow="555" windowWidth="28035" windowHeight="17445" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -313,10 +313,10 @@
     <t>reporter-client</t>
   </si>
   <si>
-    <t>This profile defines the expected capabilities of a Da Vinci DEQM Reporter Client when conforming to the Da Vinci DEQM Implementation Guide.  Reporters include systems that are primary reporters of patient healthcare information and systems that consume data from Producers.   This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that are  Da Vinci DEQM Reporter Client could support. Clients have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
-  </si>
-  <si>
     <t>The DaVinci DEQM Reporter Client **SHOULD** be capable of supporting the DEQM MeasureReport Profiles and all the DEQM, CQFM and QI Core Profiles they reference.</t>
+  </si>
+  <si>
+    <t>This profile defines the expected capabilities of a Da Vinci DEQM Reporter Client when conforming to the Da Vinci DEQM Implementation Guide.  Reporters include systems that are primary reporters of patient healthcare information and systems that consume data from Producers.   This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that a Da Vinci DEQM Reporter Client could support. Clients have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
   </si>
 </sst>
 </file>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1040,7 +1040,7 @@
         <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +1056,7 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
